--- a/classfiers/bottleneck/welm/smote/bloated_welm_lin_smote_results.xlsx
+++ b/classfiers/bottleneck/welm/smote/bloated_welm_lin_smote_results.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Accuracy</t>
+          <t>precision</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9818181818181818</v>
+        <v>0.9205607476635514</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9951690821256038</v>
+        <v>0.9949494949494949</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9809523809523809</v>
+        <v>0.9563106796116505</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9978022433704464</v>
+        <v>0.9935630817983758</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9613636363636363</v>
+        <v>0.9405940594059405</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9910313901345291</v>
+        <v>0.9895833333333334</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9629629629629629</v>
+        <v>0.964467005076142</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9945444400818334</v>
+        <v>0.9957137161084529</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9477272727272728</v>
+        <v>0.875</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9907834101382489</v>
+        <v>0.9949238578680203</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9492273730684326</v>
+        <v>0.9311163895486937</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9936351800954722</v>
+        <v>0.9858913108390565</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.958997722095672</v>
+        <v>0.9607843137254902</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9867256637168141</v>
+        <v>0.9898989898989899</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9612068965517242</v>
+        <v>0.9751243781094527</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9923553118118742</v>
+        <v>0.9951485296312882</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9521640091116174</v>
+        <v>0.963963963963964</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9911504424778761</v>
+        <v>0.981651376146789</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9552238805970149</v>
+        <v>0.9727272727272728</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9865802484523661</v>
+        <v>0.9954629768887552</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.960414164423276</v>
+        <v>0.9321806169517893</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9909719977186144</v>
+        <v>0.9902014104393254</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9619146988265032</v>
+        <v>0.9599491450146423</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9929834847623985</v>
+        <v>0.9931559230531857</v>
       </c>
     </row>
   </sheetData>
